--- a/view/test/resources/test_essays_list.xlsx
+++ b/view/test/resources/test_essays_list.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">Essay</t>
+    <t xml:space="preserve">text</t>
   </si>
   <si>
     <t xml:space="preserve">Как же защитить население и окружающую среду от загрязнения? Существуют различные организации, которые занимаются решением этой проблемы и каждый день проводят комплекс мероприятий по охране природы. Загрязнение окружающей среды на сегодняшний день является самой актуальной и распространённой проблемой всего человечества. Каждый день сам человек страдает от воздействий на среду, заводы и фабрики, атомные электростанции, промышленные предприятия, все они сливают жидкие химические отходы в реки и озера и выбрасывают огромное количество дыма, также газов в воздух. Полным ходом идёт вырубка лесов и разработка карьеров, выкачка газа и нефти. Такое состояние окружающей среды не может не отражаться на нашем здоровье. Люди стали чаще болеть. Появилось множество болезней, все они происходят от того, что нам приходится дышать грязным воздухом, питаться загрязнёнными продуктами. Также не менее важная и самое опасное загрязнение атмосферы и всей окружающей среды – радиоактивность. Оно представляет угрозу для здоровья и жизни людей, животных и растений не только живущих поколений, но и их потомков из-за появления многочисленных мутационных уродств. источниками радиоактивного загрязнения служат экспериментальные взрывы атомных и водородных бомб. Такое загрязнение очень непредсказуемо и не безопасно. Ресурсы нашей планеты когда-нибудь закончатся, они не вечны. Многие люди даже не задумываются о том, в каком состоянии мы оставим Землю в распоряжение нашим детям и внукам. Они никогда не смогут вдохнуть свежий воздух, насладить великолепием чистейших водоёмов, морей и океанов, если человечество продолжит осознанно уничтожать планету. К счастью, сейчас для борьбы с данной проблемой существует множество волонтёрских движений, которые пытаются защитить нашу окружающую среду. Организация «Гринпис» делает огромный вклад в предотвращение экологической катастрофы глобальных размеров. Наша планета находится в серьёзной опасности, поэтому начинать действовать нужно уже сейчас. Если каждый хоть немного поучаствует, мы сможем изменить ситуацию. Нужно отказаться от пластиковой продукции, ведь пластик очень вредит экологии Земли, выбрасывать весь мусор в урну, утилизировать бумагу, чтобы не приходилось вырубать леса, отказаться от атомной энергии.</t>
@@ -202,10 +202,10 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.92"/>
   </cols>
